--- a/fflayers.xlsx
+++ b/fflayers.xlsx
@@ -194,7 +194,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E59" activeCellId="0" sqref="E59"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fflayers.xlsx
+++ b/fflayers.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="step 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="step 2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t xml:space="preserve">Вход</t>
   </si>
@@ -106,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,7 +172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +360,7 @@
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">A15*F8+B15*F9+C15*F10</f>
-        <v>0.634752112281752</v>
+        <v>0.634752112281751</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">A15*G8+B15*G9+C15*G10</f>
@@ -397,7 +399,7 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*C13))</f>
-        <v>0.61687935895062</v>
+        <v>0.616879358950619</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*E13))</f>
@@ -502,7 +504,7 @@
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">A31*F17</f>
-        <v>0.00372922972479036</v>
+        <v>0.00372922972479035</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">A32*G17</f>
@@ -545,7 +547,7 @@
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">$F$27*F8</f>
-        <v>0.000583696257251559</v>
+        <v>0.000583696257251558</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">$G$27*G8</f>
@@ -561,7 +563,7 @@
       </c>
       <c r="K30" s="0" t="n">
         <f aca="false">K27*C8</f>
-        <v>0.000631921068338115</v>
+        <v>0.000631921068338114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +670,7 @@
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">I9+A42</f>
-        <v>0.294444037093867</v>
+        <v>0.294444037093866</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,11 +702,11 @@
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">$F$2*G$27*A15</f>
-        <v>0.000653602642904816</v>
+        <v>0.000653602642904817</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">E8+A46</f>
-        <v>0.0667964195631389</v>
+        <v>0.0667964195631388</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">F8+B46</f>
@@ -726,7 +728,7 @@
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">$F$2*G$27*B15</f>
-        <v>0.000669994083449642</v>
+        <v>0.000669994083449643</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">E9+A47</f>
@@ -738,7 +740,7 @@
       </c>
       <c r="F47" s="0" t="n">
         <f aca="false">G9+C47</f>
-        <v>0.814309955073546</v>
+        <v>0.814309955073547</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,7 +754,7 @@
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">$F$2*G$27*C15</f>
-        <v>0.000690236004280536</v>
+        <v>0.000690236004280537</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">E10+A48</f>
@@ -764,7 +766,7 @@
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">G10+C48</f>
-        <v>0.31874841033461</v>
+        <v>0.318748410334611</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,11 +792,11 @@
       </c>
       <c r="D51" s="0" t="n">
         <f aca="false">A8+A51</f>
-        <v>0.604680396266025</v>
+        <v>0.604680396266026</v>
       </c>
       <c r="E51" s="0" t="n">
         <f aca="false">B8+B51</f>
-        <v>0.9406092227427</v>
+        <v>0.940609222742699</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">C8+C51</f>
@@ -824,7 +826,7 @@
       </c>
       <c r="F52" s="0" t="n">
         <f aca="false">C9+C52</f>
-        <v>0.686965705816219</v>
+        <v>0.686965705816218</v>
       </c>
     </row>
   </sheetData>
@@ -857,4 +859,676 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.604680396266026</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.940609222742699</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.664617106398134</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0667964341969221</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.157172776273512</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.0976231233610323</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.479133907092293</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.437764457902995</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.424887833815484</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.686965705816218</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.302100406893546</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.515882570350637</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.814309987827578</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.294444037093866</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>0.215488294838987</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.381347353161478</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.318748425746398</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.304920949707122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">A2*A8+B2*A9</f>
+        <v>0.339818308204702</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">A2*B8+B2*B9</f>
+        <v>0.400565761456282</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">A2*C8+B2*C9</f>
+        <v>0.476406274187736</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">A15*E8+B15*E9+C15*E10</f>
+        <v>0.352858238023616</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">A15*F8+B15*F9+C15*F10</f>
+        <v>0.635987325152132</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">A15*G8+B15*G9+C15*G10</f>
+        <v>0.741289775767322</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">E15*I8+F15*I9+G15*I10</f>
+        <v>0.68043758949365</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*A13))</f>
+        <v>0.584146387151039</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*B13))</f>
+        <v>0.598823582789162</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*C13))</f>
+        <v>0.616898910421952</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*E13))</f>
+        <v>0.587310522166165</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*F13))</f>
+        <v>0.653845827574065</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*G13))</f>
+        <v>0.677277830277755</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-1*I13))</f>
+        <v>0.66383635584664</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">A15*(1-A15)</f>
+        <v>0.242919385529428</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">B15*(1-B15)</f>
+        <v>0.240233899484714</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">C15*(1-C15)</f>
+        <v>0.23633464474216</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">E15*(1-E15)</f>
+        <v>0.242376872719072</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">F15*(1-F15)</f>
+        <v>0.226331461338051</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">G15*(1-G15)</f>
+        <v>0.218572570892012</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">I15*(1-I15)</f>
+        <v>0.223157648502893</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">I15-D2</f>
+        <v>0.26383635584664</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">I17*A25</f>
+        <v>0.0588771007603087</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">A30*E17</f>
+        <v>0.0068374552939647</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">A31*F17</f>
+        <v>0.00392368475777813</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">A32*G17</f>
+        <v>0.00392400308851576</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">E34*A17</f>
+        <v>0.000353809047753709</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">E35*B17</f>
+        <v>0.00175013122711792</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">E36*C17</f>
+        <v>0.00099743812279532</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">A27*I8</f>
+        <v>0.0282100153255533</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">$E$27*E8</f>
+        <v>0.00045671763261771</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">$F$27*F8</f>
+        <v>0.000616696426602053</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">$G$27*G8</f>
+        <v>0.000383073437579245</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">I27*A8</f>
+        <v>0.000213941395198218</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">J27*B8</f>
+        <v>0.00164618957323712</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">K27*C8</f>
+        <v>0.000662914438983412</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">A27*I9</f>
+        <v>0.0173360112402477</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">$E$27*E9</f>
+        <v>0.00206559802642317</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">$F$27*F9</f>
+        <v>0.0020241605780882</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">$G$27*G9</f>
+        <v>0.00319535490724464</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">I27*A9</f>
+        <v>0.000154885025991077</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">J27*B9</f>
+        <v>0.000743609465982969</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">K27*C9</f>
+        <v>0.000685205784034091</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">A27*I10</f>
+        <v>0.0179528614798353</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">$E$27*E10</f>
+        <v>0.00147339158233426</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">$F$27*F10</f>
+        <v>0.00149628679701873</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">$G$27*G10</f>
+        <v>0.0012507698070884</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <f aca="false">SUM(E30:G30)</f>
+        <v>0.00145648749679901</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">SUM(I30:K30)</f>
+        <v>0.00252304540741875</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <f aca="false">SUM(E31:G31)</f>
+        <v>0.00728511351175601</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">SUM(I31:K31)</f>
+        <v>0.00158370027600814</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="n">
+        <f aca="false">SUM(E32:G32)</f>
+        <v>0.00422044818644138</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <f aca="false">$F$2*$A$27*E15</f>
+        <v>0.0103737422373501</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">I8+A41</f>
+        <v>0.489507649329643</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <f aca="false">$F$2*$A$27*F15</f>
+        <v>0.0115489640015357</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">I9+A42</f>
+        <v>0.305993001095402</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <f aca="false">$F$2*$A$27*G15</f>
+        <v>0.011962846516796</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">I10+A43</f>
+        <v>0.316883796223918</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <f aca="false">$F$2*E$27*A15</f>
+        <v>0.00119822244218287</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">$F$2*F$27*A15</f>
+        <v>0.000687601882672708</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">$F$2*G$27*A15</f>
+        <v>0.000687657668197799</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">E8+A46</f>
+        <v>0.067994656639105</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">F8+B46</f>
+        <v>0.157860378156185</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">G8+C46</f>
+        <v>0.0983107810292301</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <f aca="false">$F$2*E$27*B15</f>
+        <v>0.0012283288428878</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">$F$2*F$27*B15</f>
+        <v>0.000704878489316378</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">$F$2*G$27*B15</f>
+        <v>0.000704935676502223</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">E9+A47</f>
+        <v>0.303328735736434</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">F9+B47</f>
+        <v>0.516587448839953</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">G9+C47</f>
+        <v>0.81501492350408</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <f aca="false">$F$2*E$27*C15</f>
+        <v>0.00126540561627169</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">$F$2*F$27*C15</f>
+        <v>0.000726155055573765</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">$F$2*G$27*C15</f>
+        <v>0.000726213968939323</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">E10+A48</f>
+        <v>0.216753700455258</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">F10+B48</f>
+        <v>0.382073508217052</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">G10+C48</f>
+        <v>0.319474639715338</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <f aca="false">$F$2*$I$27*A2</f>
+        <v>2.12285428652225E-005</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">$F$2*$J$27*A2</f>
+        <v>0.000105007873627075</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">$F$2*$K$27*A2</f>
+        <v>5.98462873677192E-005</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">A8+A51</f>
+        <v>0.604701624808891</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">B8+B51</f>
+        <v>0.940714230616326</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">C8+C51</f>
+        <v>0.664676952685501</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <f aca="false">$F$2*$I$27*B2</f>
+        <v>5.30713571630564E-005</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">$F$2*$J$27*B2</f>
+        <v>0.000262519684067688</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <f aca="false">$F$2*$K$27*B2</f>
+        <v>0.000149615718419298</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">A9+A52</f>
+        <v>0.437817529260158</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">B9+B52</f>
+        <v>0.425150353499552</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">C9+C52</f>
+        <v>0.687115321534638</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/fflayers.xlsx
+++ b/fflayers.xlsx
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,10 +890,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.4</v>
@@ -1016,31 +1016,31 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">A2*A8+B2*A9</f>
-        <v>0.339818308204702</v>
+        <v>0.410679605948998</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">A2*B8+B2*B9</f>
-        <v>0.400565761456282</v>
+        <v>0.433971189326657</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">A2*C8+B2*C9</f>
-        <v>0.476406274187736</v>
+        <v>0.616034275292788</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">A15*E8+B15*E9+C15*E10</f>
-        <v>0.352858238023616</v>
+        <v>0.363402461624625</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">A15*F8+B15*F9+C15*F10</f>
-        <v>0.635987325152132</v>
+        <v>0.655163887939763</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">A15*G8+B15*G9+C15*G10</f>
-        <v>0.741289775767322</v>
+        <v>0.759805309132018</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">E15*I8+F15*I9+G15*I10</f>
-        <v>0.68043758949365</v>
+        <v>0.684165067344439</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,31 +1063,31 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*A13))</f>
-        <v>0.584146387151039</v>
+        <v>0.601250824405423</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*B13))</f>
-        <v>0.598823582789162</v>
+        <v>0.606821551996302</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*C13))</f>
-        <v>0.616898910421952</v>
+        <v>0.649316069956724</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*E13))</f>
-        <v>0.587310522166165</v>
+        <v>0.589863823826559</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*F13))</f>
-        <v>0.653845827574065</v>
+        <v>0.658173187716123</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*G13))</f>
-        <v>0.677277830277755</v>
+        <v>0.681311462802033</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">1/(1+EXP(-1*I13))</f>
-        <v>0.66383635584664</v>
+        <v>0.664667662400239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,31 +1110,31 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">A15*(1-A15)</f>
-        <v>0.242919385529428</v>
+        <v>0.239748270557222</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">B15*(1-B15)</f>
-        <v>0.240233899484714</v>
+        <v>0.238589156029101</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C15*(1-C15)</f>
-        <v>0.23633464474216</v>
+        <v>0.227704711252679</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">E15*(1-E15)</f>
-        <v>0.242376872719072</v>
+        <v>0.241924493167269</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">F15*(1-F15)</f>
-        <v>0.226331461338051</v>
+        <v>0.22498124268772</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">G15*(1-G15)</f>
-        <v>0.218572570892012</v>
+        <v>0.217126153456587</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">I15*(1-I15)</f>
-        <v>0.223157648502893</v>
+        <v>0.222884560959641</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1145,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">I15-D2</f>
-        <v>0.26383635584664</v>
+        <v>0.264667662400239</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,31 +1168,31 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">I17*A25</f>
-        <v>0.0588771007603087</v>
+        <v>0.0589903357342917</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">A30*E17</f>
-        <v>0.0068374552939647</v>
+        <v>0.00683781920442562</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">A31*F17</f>
-        <v>0.00392368475777813</v>
+        <v>0.0039077785333328</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">A32*G17</f>
-        <v>0.00392400308851576</v>
+        <v>0.00390553262677637</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">E34*A17</f>
-        <v>0.000353809047753709</v>
+        <v>0.000348164508753283</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">E35*B17</f>
-        <v>0.00175013122711792</v>
+        <v>0.00173262896921802</v>
       </c>
       <c r="K27" s="0" t="n">
         <f aca="false">E36*C17</f>
-        <v>0.00099743812279532</v>
+        <v>0.000958311985753255</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,105 +1211,105 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">A27*I8</f>
-        <v>0.0282100153255533</v>
+        <v>0.0282642700410573</v>
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">$E$27*E8</f>
-        <v>0.00045671763261771</v>
+        <v>0.000456741940538866</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">$F$27*F8</f>
-        <v>0.000616696426602053</v>
+        <v>0.000614196401145949</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">$G$27*G8</f>
-        <v>0.000383073437579245</v>
+        <v>0.000381270293414326</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">I27*A8</f>
-        <v>0.000213941395198218</v>
+        <v>0.000210528253118702</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">J27*B8</f>
-        <v>0.00164618957323712</v>
+        <v>0.00162972678803765</v>
       </c>
       <c r="K30" s="0" t="n">
         <f aca="false">K27*C8</f>
-        <v>0.000662914438983412</v>
+        <v>0.000636910538997978</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">A27*I9</f>
-        <v>0.0173360112402477</v>
+        <v>0.0173693526031274</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">$E$27*E9</f>
-        <v>0.00206559802642317</v>
+        <v>0.00206570796392148</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">$F$27*F9</f>
-        <v>0.0020241605780882</v>
+        <v>0.00201595483413676</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">$G$27*G9</f>
-        <v>0.00319535490724464</v>
+        <v>0.00318031422577047</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">I27*A9</f>
-        <v>0.000154885025991077</v>
+        <v>0.000152414047435443</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">J27*B9</f>
-        <v>0.000743609465982969</v>
+        <v>0.000736172969536999</v>
       </c>
       <c r="K31" s="0" t="n">
         <f aca="false">K27*C9</f>
-        <v>0.000685205784034091</v>
+        <v>0.000658327469685126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">A27*I10</f>
-        <v>0.0179528614798353</v>
+        <v>0.0179873891956422</v>
       </c>
       <c r="E32" s="0" t="n">
         <f aca="false">$E$27*E10</f>
-        <v>0.00147339158233426</v>
+        <v>0.00147347000077895</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">$F$27*F10</f>
-        <v>0.00149628679701873</v>
+        <v>0.00149022100042771</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">$G$27*G10</f>
-        <v>0.0012507698070884</v>
+        <v>0.00124488237648616</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="n">
         <f aca="false">SUM(E30:G30)</f>
-        <v>0.00145648749679901</v>
+        <v>0.00145220863509914</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">SUM(I30:K30)</f>
-        <v>0.00252304540741875</v>
+        <v>0.00247716558015432</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="n">
         <f aca="false">SUM(E31:G31)</f>
-        <v>0.00728511351175601</v>
+        <v>0.00726197702382872</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">SUM(I31:K31)</f>
-        <v>0.00158370027600814</v>
+        <v>0.00154691448665757</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="n">
         <f aca="false">SUM(E32:G32)</f>
-        <v>0.00422044818644138</v>
+        <v>0.00420857337769282</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,31 +1328,31 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">$F$2*$A$27*E15</f>
-        <v>0.0103737422373501</v>
+        <v>0.0104388795015126</v>
       </c>
       <c r="B41" s="0" t="n">
         <f aca="false">I8+A41</f>
-        <v>0.489507649329643</v>
+        <v>0.489572786593805</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">$F$2*$A$27*F15</f>
-        <v>0.0115489640015357</v>
+        <v>0.0116477571944049</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">I9+A42</f>
-        <v>0.305993001095402</v>
+        <v>0.306091794288271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <f aca="false">$F$2*$A$27*G15</f>
-        <v>0.011962846516796</v>
+        <v>0.012057237579094</v>
       </c>
       <c r="B43" s="0" t="n">
         <f aca="false">I10+A43</f>
-        <v>0.316883796223918</v>
+        <v>0.316978187286216</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,79 +1366,79 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <f aca="false">$F$2*E$27*A15</f>
-        <v>0.00119822244218287</v>
+        <v>0.00123337333013884</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">$F$2*F$27*A15</f>
-        <v>0.000687601882672708</v>
+        <v>0.000704866519428047</v>
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">$F$2*G$27*A15</f>
-        <v>0.000687657668197799</v>
+        <v>0.00070446141347747</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">E8+A46</f>
-        <v>0.067994656639105</v>
+        <v>0.068029807527061</v>
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">F8+B46</f>
-        <v>0.157860378156185</v>
+        <v>0.15787764279294</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">G8+C46</f>
-        <v>0.0983107810292301</v>
+        <v>0.0983275847745098</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <f aca="false">$F$2*E$27*B15</f>
-        <v>0.0012283288428878</v>
+        <v>0.0012448008185699</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">$F$2*F$27*B15</f>
-        <v>0.000704878489316378</v>
+        <v>0.000711397270336452</v>
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">$F$2*G$27*B15</f>
-        <v>0.000704935676502223</v>
+        <v>0.000710988410985789</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">E9+A47</f>
-        <v>0.303328735736434</v>
+        <v>0.303345207712116</v>
       </c>
       <c r="E47" s="0" t="n">
         <f aca="false">F9+B47</f>
-        <v>0.516587448839953</v>
+        <v>0.516593967620973</v>
       </c>
       <c r="F47" s="0" t="n">
         <f aca="false">G9+C47</f>
-        <v>0.81501492350408</v>
+        <v>0.815020976238564</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <f aca="false">$F$2*E$27*C15</f>
-        <v>0.00126540561627169</v>
+        <v>0.00133197176786768</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">$F$2*F$27*C15</f>
-        <v>0.000726155055573765</v>
+        <v>0.000761215019857471</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">$F$2*G$27*C15</f>
-        <v>0.000726213968939323</v>
+        <v>0.000760777528891857</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">E10+A48</f>
-        <v>0.216753700455258</v>
+        <v>0.216820266606854</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">F10+B48</f>
-        <v>0.382073508217052</v>
+        <v>0.382108568181336</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">G10+C48</f>
-        <v>0.319474639715338</v>
+        <v>0.31950920327529</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,53 +1452,53 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <f aca="false">$F$2*$I$27*A2</f>
-        <v>2.12285428652225E-005</v>
+        <v>1.04449352625985E-005</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">$F$2*$J$27*A2</f>
-        <v>0.000105007873627075</v>
+        <v>5.19788690765406E-005</v>
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">$F$2*$K$27*A2</f>
-        <v>5.98462873677192E-005</v>
+        <v>2.87493595725976E-005</v>
       </c>
       <c r="D51" s="0" t="n">
         <f aca="false">A8+A51</f>
-        <v>0.604701624808891</v>
+        <v>0.604690841201288</v>
       </c>
       <c r="E51" s="0" t="n">
         <f aca="false">B8+B51</f>
-        <v>0.940714230616326</v>
+        <v>0.940661201611776</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">C8+C51</f>
-        <v>0.664676952685501</v>
+        <v>0.664645855757706</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <f aca="false">$F$2*$I$27*B2</f>
-        <v>5.30713571630564E-005</v>
+        <v>8.3559482100788E-005</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">$F$2*$J$27*B2</f>
-        <v>0.000262519684067688</v>
+        <v>0.000415830952612325</v>
       </c>
       <c r="C52" s="0" t="n">
         <f aca="false">$F$2*$K$27*B2</f>
-        <v>0.000149615718419298</v>
+        <v>0.000229994876580781</v>
       </c>
       <c r="D52" s="0" t="n">
         <f aca="false">A9+A52</f>
-        <v>0.437817529260158</v>
+        <v>0.437848017385095</v>
       </c>
       <c r="E52" s="0" t="n">
         <f aca="false">B9+B52</f>
-        <v>0.425150353499552</v>
+        <v>0.425303664768096</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="false">C9+C52</f>
-        <v>0.687115321534638</v>
+        <v>0.687195700692799</v>
       </c>
     </row>
   </sheetData>
